--- a/data/out/third_teams_euro.xlsx
+++ b/data/out/third_teams_euro.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,10 +625,10 @@
         <v>2021</v>
       </c>
       <c r="C12" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -673,10 +673,10 @@
         <v>2021</v>
       </c>
       <c r="C15" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D15" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -714,94 +714,94 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Wales</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>2021</v>
       </c>
       <c r="C18" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D18" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>2021</v>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>2021</v>
       </c>
       <c r="C20" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2021</v>
       </c>
       <c r="C21" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D21" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>2021</v>
       </c>
       <c r="C22" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>2021</v>
       </c>
       <c r="C23" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -810,14 +810,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>2021</v>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -826,208 +826,240 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C25" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C26" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>2024</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>2024</v>
       </c>
       <c r="C28" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D28" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>2024</v>
       </c>
       <c r="C29" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>2024</v>
       </c>
       <c r="C30" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2024</v>
       </c>
       <c r="C31" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D31" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>2024</v>
       </c>
       <c r="C32" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D32" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>2024</v>
       </c>
       <c r="C33" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D33" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>2024</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>2024</v>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D35" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>2024</v>
       </c>
       <c r="C36" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C37" t="n">
+        <v>10</v>
+      </c>
+      <c r="D37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" t="n">
+      <c r="B38" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C38" t="n">
+        <v>4</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C39" t="n">
+        <v>3</v>
+      </c>
+      <c r="D39" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/out/third_teams_euro.xlsx
+++ b/data/out/third_teams_euro.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,10 +625,10 @@
         <v>2021</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
@@ -673,10 +673,10 @@
         <v>2021</v>
       </c>
       <c r="C15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
@@ -714,94 +714,94 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Wales</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>2021</v>
       </c>
       <c r="C18" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D18" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>2021</v>
       </c>
       <c r="C19" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>2021</v>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2021</v>
       </c>
       <c r="C21" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D21" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>2021</v>
       </c>
       <c r="C22" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D22" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>2021</v>
       </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -810,14 +810,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>2021</v>
       </c>
       <c r="C24" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -826,240 +826,208 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C25" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>2024</v>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>2024</v>
       </c>
       <c r="C28" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D28" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>2024</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>2024</v>
       </c>
       <c r="C30" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D30" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2024</v>
       </c>
       <c r="C31" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>2024</v>
       </c>
       <c r="C32" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>2024</v>
       </c>
       <c r="C33" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D33" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>2024</v>
       </c>
       <c r="C34" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>2024</v>
       </c>
       <c r="C35" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D35" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>2024</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>2024</v>
       </c>
       <c r="C37" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C38" t="n">
-        <v>4</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Georgia</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C39" t="n">
-        <v>3</v>
-      </c>
-      <c r="D39" t="n">
         <v>0</v>
       </c>
     </row>
